--- a/medicine/Psychotrope/Schlossbrauerei_Rheder/Schlossbrauerei_Rheder.xlsx
+++ b/medicine/Psychotrope/Schlossbrauerei_Rheder/Schlossbrauerei_Rheder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Schlossbrauerei Rheder est une brasserie à Brakel, dans le Land de Rhénanie-du-Nord-Westphalie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des barons de Spiegel et de Mengersen s'installe en 1400 à Rheder. Elle gérait les biens de la principauté de Paderborn et de l'abbaye de Heerse. Le village de Rheder est mentionné pour la première fois en 1120.
 Le 2 juillet 1686, Christian Falcko von Mengersen, propriétaire du château de Rheder, obtient le droit de brassage de Hermann Werner von Wolff-Metternich zur Gracht, le prince-évêque de Paderborn. La Schloßbrauerei Rheder est depuis toujours dans le domaine familial des barons de Spiegel et de Mengersen.
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Schloßbräu Rheder Pils
 St. Annen dunkel
